--- a/Offlines/Divide & Conquer/Report.xlsx
+++ b/Offlines/Divide & Conquer/Report.xlsx
@@ -468,10 +468,10 @@
         <v>100</v>
       </c>
       <c r="B5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
         <v>0.05</v>
-      </c>
-      <c r="C5" t="str">
-        <v>0</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0.05</v>
       </c>
       <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
         <v>0.05</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -494,25 +494,25 @@
         <v>1000</v>
       </c>
       <c r="B6" t="str">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1.35</v>
+      </c>
+      <c r="F6" t="str">
+        <v>5.05</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1.95</v>
+      </c>
+      <c r="H6" t="str">
         <v>0.1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1.2</v>
-      </c>
-      <c r="F6" t="str">
-        <v>4.7</v>
-      </c>
-      <c r="G6" t="str">
-        <v>1.85</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -520,25 +520,25 @@
         <v>10000</v>
       </c>
       <c r="B7" t="str">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="C7" t="str">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="D7" t="str">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="str">
-        <v>114.65</v>
+        <v>116.1</v>
       </c>
       <c r="F7" t="str">
-        <v>458.2</v>
+        <v>490.5</v>
       </c>
       <c r="G7" t="str">
-        <v>181.15</v>
+        <v>197.15</v>
       </c>
       <c r="H7" t="str">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -557,8 +557,11 @@
       <c r="E8" t="str">
         <v>12998.4</v>
       </c>
+      <c r="F8" t="str">
+        <v>48613.5</v>
+      </c>
       <c r="G8" t="str">
-        <v>4315</v>
+        <v>36395.3</v>
       </c>
       <c r="H8" t="str">
         <v>21.15</v>

--- a/Offlines/Divide & Conquer/Report.xlsx
+++ b/Offlines/Divide & Conquer/Report.xlsx
@@ -546,25 +546,25 @@
         <v>100000</v>
       </c>
       <c r="B8" t="str">
-        <v>49.05</v>
+        <v>46.0467</v>
       </c>
       <c r="C8" t="str">
-        <v>20.25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
-        <v>20.25</v>
+        <v>18.8571</v>
       </c>
       <c r="E8" t="str">
-        <v>12998.4</v>
+        <v>10986.8</v>
       </c>
       <c r="F8" t="str">
-        <v>48613.5</v>
+        <v>46305.7</v>
       </c>
       <c r="G8" t="str">
-        <v>36395.3</v>
+        <v>34819.8</v>
       </c>
       <c r="H8" t="str">
-        <v>21.15</v>
+        <v>19.8095</v>
       </c>
     </row>
   </sheetData>
